--- a/data/pca/factorExposure/factorExposure_2017-08-22.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-08-22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02400345020181485</v>
+        <v>0.007191241490421085</v>
       </c>
       <c r="C2">
-        <v>0.003986133659728198</v>
+        <v>-0.04155104681560833</v>
       </c>
       <c r="D2">
-        <v>-0.01784321034474024</v>
+        <v>0.02959604879431794</v>
       </c>
       <c r="E2">
-        <v>-0.009144819339436948</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.03199867735827622</v>
+      </c>
+      <c r="F2">
+        <v>0.01573028545000784</v>
+      </c>
+      <c r="G2">
+        <v>-0.04661077828373532</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.01491971367658418</v>
+        <v>0.0552172437200702</v>
       </c>
       <c r="C3">
-        <v>0.05323482040003189</v>
+        <v>-0.06853659833227156</v>
       </c>
       <c r="D3">
-        <v>-0.008634632988261205</v>
+        <v>0.01453767468158491</v>
       </c>
       <c r="E3">
-        <v>-0.00656798255057817</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.09718162198082858</v>
+      </c>
+      <c r="F3">
+        <v>0.03800294081613915</v>
+      </c>
+      <c r="G3">
+        <v>-0.1009881572649897</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02306170118172066</v>
+        <v>0.05609435789934425</v>
       </c>
       <c r="C4">
-        <v>0.021736355347455</v>
+        <v>-0.06381150168463705</v>
       </c>
       <c r="D4">
-        <v>-0.0629468569599342</v>
+        <v>0.023375309317644</v>
       </c>
       <c r="E4">
-        <v>0.01485967156798165</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.01808902714393586</v>
+      </c>
+      <c r="F4">
+        <v>0.006468522884935417</v>
+      </c>
+      <c r="G4">
+        <v>-0.05934413815563096</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01491074833915876</v>
+        <v>0.03770239766134888</v>
       </c>
       <c r="C6">
-        <v>0.01215973972706242</v>
+        <v>-0.04954793948158129</v>
       </c>
       <c r="D6">
-        <v>-0.08661641958781591</v>
+        <v>0.01554159361809218</v>
       </c>
       <c r="E6">
-        <v>0.007446548877472124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.01713800414632077</v>
+      </c>
+      <c r="F6">
+        <v>0.01416734219871745</v>
+      </c>
+      <c r="G6">
+        <v>-0.03586932892197002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01063261650144511</v>
+        <v>0.01678252009139275</v>
       </c>
       <c r="C7">
-        <v>0.00568956036603702</v>
+        <v>-0.03642705395746307</v>
       </c>
       <c r="D7">
-        <v>-0.03068011542414814</v>
+        <v>0.01327570781599228</v>
       </c>
       <c r="E7">
-        <v>0.07518428425854112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.008761453373214849</v>
+      </c>
+      <c r="F7">
+        <v>0.001748617766832103</v>
+      </c>
+      <c r="G7">
+        <v>-0.1011257794499689</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-3.217336035469893e-05</v>
+        <v>-0.001586307789206309</v>
       </c>
       <c r="C8">
-        <v>0.0005686338510234653</v>
+        <v>-0.0191707605706203</v>
       </c>
       <c r="D8">
-        <v>-0.006035789908048815</v>
+        <v>0.003884987369342743</v>
       </c>
       <c r="E8">
-        <v>0.006868990024706915</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.02312967844662311</v>
+      </c>
+      <c r="F8">
+        <v>0.01965733523070962</v>
+      </c>
+      <c r="G8">
+        <v>-0.0319823294235443</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.016067551976306</v>
+        <v>0.03312692125217616</v>
       </c>
       <c r="C9">
-        <v>0.02325358419352084</v>
+        <v>-0.04478580517589881</v>
       </c>
       <c r="D9">
-        <v>-0.04783368627140318</v>
+        <v>0.01617271235756359</v>
       </c>
       <c r="E9">
-        <v>0.005519944138374787</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.01315936837092309</v>
+      </c>
+      <c r="F9">
+        <v>0.01360376707571364</v>
+      </c>
+      <c r="G9">
+        <v>-0.05654770507426791</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.01732846628232103</v>
+        <v>0.09187903919078302</v>
       </c>
       <c r="C10">
-        <v>0.1600986231064294</v>
+        <v>0.184319449436384</v>
       </c>
       <c r="D10">
-        <v>0.1190924940417216</v>
+        <v>-0.01739904592550036</v>
       </c>
       <c r="E10">
-        <v>0.01450624262417952</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.009675207914845118</v>
+      </c>
+      <c r="F10">
+        <v>-0.017705946327463</v>
+      </c>
+      <c r="G10">
+        <v>-0.04965027042121088</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.0005754760047089832</v>
+        <v>0.03200392811044336</v>
       </c>
       <c r="C11">
-        <v>0.008431131672220737</v>
+        <v>-0.05400556737658918</v>
       </c>
       <c r="D11">
-        <v>-0.04148395975578197</v>
+        <v>0.002457680843920903</v>
       </c>
       <c r="E11">
-        <v>-0.006513950624603627</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.007397135963955193</v>
+      </c>
+      <c r="F11">
+        <v>0.02286462716168577</v>
+      </c>
+      <c r="G11">
+        <v>-0.03912635637544754</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.006128176302706109</v>
+        <v>0.03178006598446463</v>
       </c>
       <c r="C12">
-        <v>0.01593899769101044</v>
+        <v>-0.04578911808528904</v>
       </c>
       <c r="D12">
-        <v>-0.04400706586008653</v>
+        <v>0.006226039813535252</v>
       </c>
       <c r="E12">
-        <v>0.002424609565227432</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.001380618306632821</v>
+      </c>
+      <c r="F12">
+        <v>0.005444464710488602</v>
+      </c>
+      <c r="G12">
+        <v>-0.03886132164804598</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.02222464359134293</v>
+        <v>0.01501210766889817</v>
       </c>
       <c r="C13">
-        <v>0.01609511326116078</v>
+        <v>-0.03119855848005501</v>
       </c>
       <c r="D13">
-        <v>-0.01003666831639519</v>
+        <v>0.02500789395115678</v>
       </c>
       <c r="E13">
-        <v>-0.009281327765514226</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.02313052278104679</v>
+      </c>
+      <c r="F13">
+        <v>0.0113697154056968</v>
+      </c>
+      <c r="G13">
+        <v>-0.05525785431131693</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.007743480376734727</v>
+        <v>0.008330819243231861</v>
       </c>
       <c r="C14">
-        <v>0.01535442523483123</v>
+        <v>-0.02552035377267602</v>
       </c>
       <c r="D14">
-        <v>-0.01224704901234192</v>
+        <v>0.008523030251057962</v>
       </c>
       <c r="E14">
-        <v>0.01324822077099481</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.005787927034064848</v>
+      </c>
+      <c r="F14">
+        <v>-0.004482428930749488</v>
+      </c>
+      <c r="G14">
+        <v>-0.05616227042367218</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.001366314950961505</v>
+        <v>0.03198044694964101</v>
       </c>
       <c r="C16">
-        <v>0.01562388031808015</v>
+        <v>-0.04461343218627135</v>
       </c>
       <c r="D16">
-        <v>-0.04586553919498366</v>
+        <v>0.00172734590131929</v>
       </c>
       <c r="E16">
-        <v>0.001765594810774382</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.005294337582568405</v>
+      </c>
+      <c r="F16">
+        <v>0.008274362251641337</v>
+      </c>
+      <c r="G16">
+        <v>-0.03935574406763952</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01398233224569742</v>
+        <v>0.02314587912578609</v>
       </c>
       <c r="C19">
-        <v>0.02533296126365591</v>
+        <v>-0.04894174148604426</v>
       </c>
       <c r="D19">
-        <v>-0.02031508856899876</v>
+        <v>0.01652770396991682</v>
       </c>
       <c r="E19">
-        <v>0.004651926197481265</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.05396120987598185</v>
+      </c>
+      <c r="F19">
+        <v>0.02042296390744372</v>
+      </c>
+      <c r="G19">
+        <v>-0.06588452575230666</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01095596848227656</v>
+        <v>0.01224628784190783</v>
       </c>
       <c r="C20">
-        <v>0.01037928069738079</v>
+        <v>-0.03291307957457047</v>
       </c>
       <c r="D20">
-        <v>-0.01010617414690649</v>
+        <v>0.01320655467314034</v>
       </c>
       <c r="E20">
-        <v>7.704182899522127e-05</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.02376054345670887</v>
+      </c>
+      <c r="F20">
+        <v>-0.002191252253142026</v>
+      </c>
+      <c r="G20">
+        <v>-0.0540877003000679</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.0152876312591929</v>
+        <v>0.01489797646089483</v>
       </c>
       <c r="C21">
-        <v>0.0322357913617176</v>
+        <v>-0.03468634432071933</v>
       </c>
       <c r="D21">
-        <v>-0.01885265078700804</v>
+        <v>0.01663938211777656</v>
       </c>
       <c r="E21">
-        <v>0.01808036842821363</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.03133025552788849</v>
+      </c>
+      <c r="F21">
+        <v>0.002512167724872519</v>
+      </c>
+      <c r="G21">
+        <v>-0.07749431522067807</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.004705633610559855</v>
+        <v>0.02534208381447218</v>
       </c>
       <c r="C24">
-        <v>0.004078128796954376</v>
+        <v>-0.04848021643455662</v>
       </c>
       <c r="D24">
-        <v>-0.0417320788355612</v>
+        <v>0.007312660015414019</v>
       </c>
       <c r="E24">
-        <v>-0.0002924193654157111</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.003241395757438924</v>
+      </c>
+      <c r="F24">
+        <v>0.02045742245220563</v>
+      </c>
+      <c r="G24">
+        <v>-0.04208212334851545</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01221167523283091</v>
+        <v>0.04017320460131472</v>
       </c>
       <c r="C25">
-        <v>0.02335039796999317</v>
+        <v>-0.05502200580944788</v>
       </c>
       <c r="D25">
-        <v>-0.04287240850402535</v>
+        <v>0.01129204466412325</v>
       </c>
       <c r="E25">
-        <v>-0.000861721865466532</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.004642275613566588</v>
+      </c>
+      <c r="F25">
+        <v>0.01255086311155696</v>
+      </c>
+      <c r="G25">
+        <v>-0.04708778527239912</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02303437779877221</v>
+        <v>0.01279693185660616</v>
       </c>
       <c r="C26">
-        <v>0.01158960518906269</v>
+        <v>-0.008174809246098666</v>
       </c>
       <c r="D26">
-        <v>0.0066412596441135</v>
+        <v>0.02342610902433104</v>
       </c>
       <c r="E26">
-        <v>0.009038388321239011</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.002988057519403352</v>
+      </c>
+      <c r="F26">
+        <v>-0.003071193547712004</v>
+      </c>
+      <c r="G26">
+        <v>-0.04276065634424311</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.03858996005307076</v>
+        <v>0.1194529570387846</v>
       </c>
       <c r="C28">
-        <v>0.2321301191655262</v>
+        <v>0.2320226039176171</v>
       </c>
       <c r="D28">
-        <v>0.171741385882977</v>
+        <v>-0.008585305791589821</v>
       </c>
       <c r="E28">
-        <v>0.02304723073948987</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.0009369711233898367</v>
+      </c>
+      <c r="F28">
+        <v>-0.01837792364823765</v>
+      </c>
+      <c r="G28">
+        <v>-0.06403377821645509</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.008159650031162405</v>
+        <v>0.01095206286950287</v>
       </c>
       <c r="C29">
-        <v>0.02028765991773843</v>
+        <v>-0.01921514465440577</v>
       </c>
       <c r="D29">
-        <v>-0.009788974974553701</v>
+        <v>0.007320020054893907</v>
       </c>
       <c r="E29">
-        <v>0.008158860954911093</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.008342413941491269</v>
+      </c>
+      <c r="F29">
+        <v>-0.01323906789412842</v>
+      </c>
+      <c r="G29">
+        <v>-0.04557955221816839</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.02371438692933634</v>
+        <v>0.04533511460588015</v>
       </c>
       <c r="C30">
-        <v>0.007593064063267461</v>
+        <v>-0.06279566593497478</v>
       </c>
       <c r="D30">
-        <v>-0.06182847023034335</v>
+        <v>0.02783135367842454</v>
       </c>
       <c r="E30">
-        <v>-0.05549951345856972</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.04460521241682616</v>
+      </c>
+      <c r="F30">
+        <v>0.05318140576462949</v>
+      </c>
+      <c r="G30">
+        <v>-0.03284699479115907</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.008849380630162076</v>
+        <v>0.04998020533586792</v>
       </c>
       <c r="C31">
-        <v>0.04267251503178258</v>
+        <v>-0.03302548962715637</v>
       </c>
       <c r="D31">
-        <v>-0.04328871523094201</v>
+        <v>0.003253281545893614</v>
       </c>
       <c r="E31">
-        <v>0.01112473014284962</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.00766273862291366</v>
+      </c>
+      <c r="F31">
+        <v>-0.036626095871484</v>
+      </c>
+      <c r="G31">
+        <v>-0.04615072611702125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.006162883254190076</v>
+        <v>-0.003490754407147769</v>
       </c>
       <c r="C32">
-        <v>0.02138993384807229</v>
+        <v>-0.02818157660290395</v>
       </c>
       <c r="D32">
-        <v>0.004276042055144842</v>
+        <v>-0.003943613576355296</v>
       </c>
       <c r="E32">
-        <v>0.03228697549739648</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.01548540409352328</v>
+      </c>
+      <c r="F32">
+        <v>0.04542912471804671</v>
+      </c>
+      <c r="G32">
+        <v>-0.06824233818345654</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.01348798212906524</v>
+        <v>0.02699136082599947</v>
       </c>
       <c r="C33">
-        <v>0.02705678183939005</v>
+        <v>-0.04654601458991083</v>
       </c>
       <c r="D33">
-        <v>-0.02178871806616725</v>
+        <v>0.01465030085641821</v>
       </c>
       <c r="E33">
-        <v>-0.02309464354481789</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.02701694270316812</v>
+      </c>
+      <c r="F33">
+        <v>0.02250250427526326</v>
+      </c>
+      <c r="G33">
+        <v>-0.06036578502781446</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.003970455856343494</v>
+        <v>0.03943215779593774</v>
       </c>
       <c r="C34">
-        <v>0.02315157735538563</v>
+        <v>-0.057704108059138</v>
       </c>
       <c r="D34">
-        <v>-0.04602759632823105</v>
+        <v>-0.004611363692292272</v>
       </c>
       <c r="E34">
-        <v>0.006100566821569035</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.004245740627785692</v>
+      </c>
+      <c r="F34">
+        <v>0.02355562692876206</v>
+      </c>
+      <c r="G34">
+        <v>-0.04829707161055449</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01307656087487392</v>
+        <v>0.01245304314637358</v>
       </c>
       <c r="C36">
-        <v>0.02413931902920575</v>
+        <v>-0.008302142093184023</v>
       </c>
       <c r="D36">
-        <v>-0.002964930097072555</v>
+        <v>0.01158053008443798</v>
       </c>
       <c r="E36">
-        <v>0.003082865450498779</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.0004761794123119907</v>
+      </c>
+      <c r="F36">
+        <v>-0.004700433431164818</v>
+      </c>
+      <c r="G36">
+        <v>-0.0383236538027692</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.003600980156004009</v>
+        <v>0.03075017419981664</v>
       </c>
       <c r="C38">
-        <v>0.0384390925624813</v>
+        <v>-0.02803769808328397</v>
       </c>
       <c r="D38">
-        <v>-0.03038834549540802</v>
+        <v>-0.007407841218072219</v>
       </c>
       <c r="E38">
-        <v>0.001463326236608622</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.00404453180358515</v>
+      </c>
+      <c r="F38">
+        <v>-0.01059464893314607</v>
+      </c>
+      <c r="G38">
+        <v>-0.04478501770220047</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.005360083164793676</v>
+        <v>0.03163722382729178</v>
       </c>
       <c r="C39">
-        <v>-0.0152919863123914</v>
+        <v>-0.08137723063203191</v>
       </c>
       <c r="D39">
-        <v>-0.09163623686053518</v>
+        <v>0.01222887472958751</v>
       </c>
       <c r="E39">
-        <v>-0.007463942638293693</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.02186203699049796</v>
+      </c>
+      <c r="F39">
+        <v>0.03203549474736464</v>
+      </c>
+      <c r="G39">
+        <v>-0.04372707001055571</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01230255583270938</v>
+        <v>0.01964422963446415</v>
       </c>
       <c r="C40">
-        <v>0.02446444947138918</v>
+        <v>-0.03157361150729542</v>
       </c>
       <c r="D40">
-        <v>-0.03042396815379163</v>
+        <v>0.0133689539077089</v>
       </c>
       <c r="E40">
-        <v>-0.002609402283358291</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.01957930877613098</v>
+      </c>
+      <c r="F40">
+        <v>0.01339152635351864</v>
+      </c>
+      <c r="G40">
+        <v>-0.04248259318496051</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.006076627221020127</v>
+        <v>0.01024510068129877</v>
       </c>
       <c r="C41">
-        <v>0.02268303916147209</v>
+        <v>-0.001006357956521363</v>
       </c>
       <c r="D41">
-        <v>0.009355136474614025</v>
+        <v>0.003841427128036918</v>
       </c>
       <c r="E41">
-        <v>0.00324814384685464</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.002471163333388465</v>
+      </c>
+      <c r="F41">
+        <v>-0.007452366496329607</v>
+      </c>
+      <c r="G41">
+        <v>-0.0263034874910172</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.093204587833671</v>
+        <v>0.01416756653365977</v>
       </c>
       <c r="C42">
-        <v>0.0006461324673765432</v>
+        <v>-0.04133153053184788</v>
       </c>
       <c r="D42">
-        <v>-0.2683493503276984</v>
+        <v>0.09419502057632034</v>
       </c>
       <c r="E42">
-        <v>-0.282568696869325</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>0.03406903482520884</v>
+      </c>
+      <c r="F42">
+        <v>-0.04248451446869486</v>
+      </c>
+      <c r="G42">
+        <v>0.1618289528264763</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.007483348902703068</v>
+        <v>0.02912690094779964</v>
       </c>
       <c r="C43">
-        <v>0.02712277332660958</v>
+        <v>-0.01304790472884435</v>
       </c>
       <c r="D43">
-        <v>0.01345162747646184</v>
+        <v>0.004989596261060305</v>
       </c>
       <c r="E43">
-        <v>-0.003137260982033013</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.008876336896185654</v>
+      </c>
+      <c r="F43">
+        <v>-0.00128126931975039</v>
+      </c>
+      <c r="G43">
+        <v>-0.03992750062067335</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.003633548470466126</v>
+        <v>0.01640611667745871</v>
       </c>
       <c r="C44">
-        <v>0.01027839341704506</v>
+        <v>-0.04770015216111791</v>
       </c>
       <c r="D44">
-        <v>-0.02667895578609886</v>
+        <v>0.006106976366609807</v>
       </c>
       <c r="E44">
-        <v>0.001164446695434721</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.01647325242031878</v>
+      </c>
+      <c r="F44">
+        <v>0.0005337577677749705</v>
+      </c>
+      <c r="G44">
+        <v>-0.05842976545981989</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.01135600661535327</v>
+        <v>0.006433877299592961</v>
       </c>
       <c r="C46">
-        <v>0.01984149769857495</v>
+        <v>-0.01699668547625068</v>
       </c>
       <c r="D46">
-        <v>-0.01144824978052129</v>
+        <v>0.01143692125623924</v>
       </c>
       <c r="E46">
-        <v>0.00213799455528882</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.006629525801927862</v>
+      </c>
+      <c r="F46">
+        <v>-0.01686259039529371</v>
+      </c>
+      <c r="G46">
+        <v>-0.04352285373702397</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.003360168799141115</v>
+        <v>0.07610333307230084</v>
       </c>
       <c r="C47">
-        <v>0.05776774755931081</v>
+        <v>-0.06468442608781375</v>
       </c>
       <c r="D47">
-        <v>-0.05722833631612483</v>
+        <v>-0.005278937021828478</v>
       </c>
       <c r="E47">
-        <v>0.0003088233181783798</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.01127773087594517</v>
+      </c>
+      <c r="F47">
+        <v>-0.05541106504862031</v>
+      </c>
+      <c r="G47">
+        <v>-0.04148455855400984</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.003862147779874241</v>
+        <v>0.02003577229141578</v>
       </c>
       <c r="C48">
-        <v>0.02968926007071181</v>
+        <v>-0.009416437753753202</v>
       </c>
       <c r="D48">
-        <v>-0.009976018753360126</v>
+        <v>0.0007334356486545594</v>
       </c>
       <c r="E48">
-        <v>0.003709841230440861</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.005018632480171679</v>
+      </c>
+      <c r="F48">
+        <v>-0.01767582540120473</v>
+      </c>
+      <c r="G48">
+        <v>-0.04358910237151399</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.005133489616493794</v>
+        <v>0.07859791441877936</v>
       </c>
       <c r="C50">
-        <v>0.05476660253476076</v>
+        <v>-0.06636507947488975</v>
       </c>
       <c r="D50">
-        <v>-0.06159232198704231</v>
+        <v>-0.003595108125726959</v>
       </c>
       <c r="E50">
-        <v>0.03066111258685316</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.01577204557845294</v>
+      </c>
+      <c r="F50">
+        <v>-0.05829338371929136</v>
+      </c>
+      <c r="G50">
+        <v>-0.06614784938112636</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.007666428149531257</v>
+        <v>0.01401454605967428</v>
       </c>
       <c r="C51">
-        <v>0.02126858906066703</v>
+        <v>-0.03314726688121494</v>
       </c>
       <c r="D51">
-        <v>0.003767707527718449</v>
+        <v>0.009557748767320025</v>
       </c>
       <c r="E51">
-        <v>0.003314029803615177</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.01227473252931577</v>
+      </c>
+      <c r="F51">
+        <v>0.02920437564913533</v>
+      </c>
+      <c r="G51">
+        <v>-0.06617879255699233</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.006234418717780198</v>
+        <v>0.08379201164878905</v>
       </c>
       <c r="C53">
-        <v>0.07010753280223489</v>
+        <v>-0.07891403332132921</v>
       </c>
       <c r="D53">
-        <v>-0.118154928211005</v>
+        <v>-0.004773046873741843</v>
       </c>
       <c r="E53">
-        <v>0.009094029478854638</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.03473129503146012</v>
+      </c>
+      <c r="F53">
+        <v>-0.0605404072586677</v>
+      </c>
+      <c r="G53">
+        <v>-0.03986396070870177</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.0008041533751686491</v>
+        <v>0.03221264942225804</v>
       </c>
       <c r="C54">
-        <v>0.03685239258039504</v>
+        <v>-0.01245166409001035</v>
       </c>
       <c r="D54">
-        <v>0.00766540460271538</v>
+        <v>-0.002934246802908807</v>
       </c>
       <c r="E54">
-        <v>0.01096327408244894</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.001041003818750046</v>
+      </c>
+      <c r="F54">
+        <v>-0.005918277383497512</v>
+      </c>
+      <c r="G54">
+        <v>-0.04834996912930567</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.003336084980649114</v>
+        <v>0.07195098181012323</v>
       </c>
       <c r="C55">
-        <v>0.05196192350571853</v>
+        <v>-0.07009178321376104</v>
       </c>
       <c r="D55">
-        <v>-0.1014106844759148</v>
+        <v>-0.005333140485540281</v>
       </c>
       <c r="E55">
-        <v>-0.004163921160796344</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.02684788164542643</v>
+      </c>
+      <c r="F55">
+        <v>-0.05894986958222958</v>
+      </c>
+      <c r="G55">
+        <v>-0.02225069697535567</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.005052454462939941</v>
+        <v>0.1433912551111473</v>
       </c>
       <c r="C56">
-        <v>0.09874425260393596</v>
+        <v>-0.1047941913549952</v>
       </c>
       <c r="D56">
-        <v>-0.1489272573397769</v>
+        <v>-0.01322872139436938</v>
       </c>
       <c r="E56">
-        <v>-0.0003359797790729736</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.0399361383350575</v>
+      </c>
+      <c r="F56">
+        <v>-0.08178604270241427</v>
+      </c>
+      <c r="G56">
+        <v>-0.009420882751703302</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.0243584533838279</v>
+        <v>0.009394333234836448</v>
       </c>
       <c r="C57">
-        <v>0.0233401168064516</v>
+        <v>-0.009388540491314115</v>
       </c>
       <c r="D57">
-        <v>-0.04030397234838931</v>
+        <v>0.02353313671360083</v>
       </c>
       <c r="E57">
-        <v>-0.003500309046745833</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>0.02760099714194351</v>
+      </c>
+      <c r="F57">
+        <v>0.01106815963315488</v>
+      </c>
+      <c r="G57">
+        <v>-0.02426798043684754</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.01329989106501766</v>
+        <v>0.08195457682037312</v>
       </c>
       <c r="C58">
-        <v>0.1004698672001629</v>
+        <v>-0.03181324060717772</v>
       </c>
       <c r="D58">
-        <v>-0.09534222551187697</v>
+        <v>0.01618274643057998</v>
       </c>
       <c r="E58">
-        <v>-0.2008119246123283</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.9397658579525647</v>
+      </c>
+      <c r="F58">
+        <v>-0.2455479409566479</v>
+      </c>
+      <c r="G58">
+        <v>0.02659193871392543</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.03528940916779443</v>
+        <v>0.1602980675761709</v>
       </c>
       <c r="C59">
-        <v>0.2468835367667074</v>
+        <v>0.2108651945729839</v>
       </c>
       <c r="D59">
-        <v>0.1740687630268913</v>
+        <v>-0.01534115055256253</v>
       </c>
       <c r="E59">
-        <v>-0.000184572772001618</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.005079777222542473</v>
+      </c>
+      <c r="F59">
+        <v>0.007039179492042226</v>
+      </c>
+      <c r="G59">
+        <v>-0.02104605720584486</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.03898892948358555</v>
+        <v>0.2850451811863912</v>
       </c>
       <c r="C60">
-        <v>0.1682266936896322</v>
+        <v>-0.1032555472904326</v>
       </c>
       <c r="D60">
-        <v>-0.06848358901446121</v>
+        <v>0.01278459347533153</v>
       </c>
       <c r="E60">
-        <v>-0.03982114889075818</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.0007588645141760138</v>
+      </c>
+      <c r="F60">
+        <v>0.3393427249072459</v>
+      </c>
+      <c r="G60">
+        <v>0.09404890410718665</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.003633477851129194</v>
+        <v>0.03527860005183185</v>
       </c>
       <c r="C61">
-        <v>0.01153821701679161</v>
+        <v>-0.06537421894966097</v>
       </c>
       <c r="D61">
-        <v>-0.06367493897357754</v>
+        <v>0.005570175510763114</v>
       </c>
       <c r="E61">
-        <v>-0.002939442593018819</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.01104647903338407</v>
+      </c>
+      <c r="F61">
+        <v>0.02080110416925106</v>
+      </c>
+      <c r="G61">
+        <v>-0.0401066435605518</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.007623054126796815</v>
+        <v>0.01360036802306337</v>
       </c>
       <c r="C63">
-        <v>0.009886913681429802</v>
+        <v>-0.02793239142356787</v>
       </c>
       <c r="D63">
-        <v>-0.008356576695957661</v>
+        <v>0.007918345596291038</v>
       </c>
       <c r="E63">
-        <v>0.008379514365162285</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.004425770310880318</v>
+      </c>
+      <c r="F63">
+        <v>-0.01547478781896076</v>
+      </c>
+      <c r="G63">
+        <v>-0.04802229473164233</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.008117228746266303</v>
+        <v>0.05182927060127269</v>
       </c>
       <c r="C64">
-        <v>0.03281156703572194</v>
+        <v>-0.04494754957095462</v>
       </c>
       <c r="D64">
-        <v>-0.06531774322119926</v>
+        <v>0.005486387424017186</v>
       </c>
       <c r="E64">
-        <v>-0.01344423579032718</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.006539946909576821</v>
+      </c>
+      <c r="F64">
+        <v>0.004769000766605821</v>
+      </c>
+      <c r="G64">
+        <v>-0.0329091782803618</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.01678202338726688</v>
+        <v>0.08415892026124498</v>
       </c>
       <c r="C65">
-        <v>0.01187515878816006</v>
+        <v>-0.05814354421506402</v>
       </c>
       <c r="D65">
-        <v>-0.1009278814974377</v>
+        <v>0.01475039178005479</v>
       </c>
       <c r="E65">
-        <v>0.007530646431314327</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.01740459046874733</v>
+      </c>
+      <c r="F65">
+        <v>0.02897529748985995</v>
+      </c>
+      <c r="G65">
+        <v>-0.01603134024082747</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.005295345620322995</v>
+        <v>0.05023941901834708</v>
       </c>
       <c r="C66">
-        <v>-0.006285486045244391</v>
+        <v>-0.1123323535176586</v>
       </c>
       <c r="D66">
-        <v>-0.1188570143718989</v>
+        <v>0.01198707548249519</v>
       </c>
       <c r="E66">
-        <v>-0.01950394271888306</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.02693216893292929</v>
+      </c>
+      <c r="F66">
+        <v>0.0376927484160557</v>
+      </c>
+      <c r="G66">
+        <v>-0.04087627790683605</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.002601935001074691</v>
+        <v>0.05283705494560554</v>
       </c>
       <c r="C67">
-        <v>0.05976806214996001</v>
+        <v>-0.03224213769673077</v>
       </c>
       <c r="D67">
-        <v>-0.03417250214793401</v>
+        <v>-0.005440433747098439</v>
       </c>
       <c r="E67">
-        <v>0.0007435484545844912</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.00224087412041526</v>
+      </c>
+      <c r="F67">
+        <v>-0.01200326403145264</v>
+      </c>
+      <c r="G67">
+        <v>-0.0417869483014582</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.05271137324091905</v>
+        <v>0.1426234630885271</v>
       </c>
       <c r="C68">
-        <v>0.2218741803665155</v>
+        <v>0.271323877562313</v>
       </c>
       <c r="D68">
-        <v>0.1627887121129348</v>
+        <v>0.002776780905855664</v>
       </c>
       <c r="E68">
-        <v>-0.004291642549995351</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.004776125677544455</v>
+      </c>
+      <c r="F68">
+        <v>-0.03105829748306795</v>
+      </c>
+      <c r="G68">
+        <v>-0.02273525890518059</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.001422448427495743</v>
+        <v>0.07687820229153092</v>
       </c>
       <c r="C69">
-        <v>0.04755134865266333</v>
+        <v>-0.06735140637987383</v>
       </c>
       <c r="D69">
-        <v>-0.06056009456301064</v>
+        <v>-0.008922464429951336</v>
       </c>
       <c r="E69">
-        <v>0.001188526985241515</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.0276881751613161</v>
+      </c>
+      <c r="F69">
+        <v>-0.03865142639523795</v>
+      </c>
+      <c r="G69">
+        <v>-0.04602323254452313</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.03856898276696179</v>
+        <v>0.1358560711812321</v>
       </c>
       <c r="C71">
-        <v>0.1955776392809953</v>
+        <v>0.2340461101573839</v>
       </c>
       <c r="D71">
-        <v>0.1469391721384333</v>
+        <v>-0.006154050405113254</v>
       </c>
       <c r="E71">
-        <v>0.009070733201503808</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.02293798785852003</v>
+      </c>
+      <c r="F71">
+        <v>-0.008989082374454397</v>
+      </c>
+      <c r="G71">
+        <v>-0.03881500265541241</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-5.499822790162234e-05</v>
+        <v>0.08487807873769551</v>
       </c>
       <c r="C72">
-        <v>0.05570509467332812</v>
+        <v>-0.07297760305692334</v>
       </c>
       <c r="D72">
-        <v>-0.130450241059543</v>
+        <v>-0.00788994609807501</v>
       </c>
       <c r="E72">
-        <v>-0.02064202355510765</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.003529388832863937</v>
+      </c>
+      <c r="F72">
+        <v>0.04610092616871943</v>
+      </c>
+      <c r="G72">
+        <v>-0.0190718744567483</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.05190382173457025</v>
+        <v>0.4011100876254874</v>
       </c>
       <c r="C73">
-        <v>0.1934275428228481</v>
+        <v>-0.1232295426685964</v>
       </c>
       <c r="D73">
-        <v>-0.1610648126877728</v>
+        <v>0.02053689290446305</v>
       </c>
       <c r="E73">
-        <v>-0.09961862128292821</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.06780945710915119</v>
+      </c>
+      <c r="F73">
+        <v>0.5525185775902089</v>
+      </c>
+      <c r="G73">
+        <v>0.1649034767970426</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.002382385350358951</v>
+        <v>0.111705235795898</v>
       </c>
       <c r="C74">
-        <v>0.0884370051441114</v>
+        <v>-0.1151733724215459</v>
       </c>
       <c r="D74">
-        <v>-0.1568937030258472</v>
+        <v>-0.01020841224470223</v>
       </c>
       <c r="E74">
-        <v>-0.007522644143823195</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.01784797508312757</v>
+      </c>
+      <c r="F74">
+        <v>-0.07651810843885926</v>
+      </c>
+      <c r="G74">
+        <v>-0.04737295699673014</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.00910170724028073</v>
+        <v>0.249965568897444</v>
       </c>
       <c r="C75">
-        <v>0.1977831941728161</v>
+        <v>-0.1512131829034063</v>
       </c>
       <c r="D75">
-        <v>-0.2783115727437693</v>
+        <v>-0.03061329100145229</v>
       </c>
       <c r="E75">
-        <v>-0.01772528106060068</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.05851514794059402</v>
+      </c>
+      <c r="F75">
+        <v>-0.1880622968271816</v>
+      </c>
+      <c r="G75">
+        <v>0.04073792310091939</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.001377621357181143</v>
+        <v>0.1261324761409056</v>
       </c>
       <c r="C76">
-        <v>0.1297536251079554</v>
+        <v>-0.1142064883359421</v>
       </c>
       <c r="D76">
-        <v>-0.2272830735536117</v>
+        <v>-0.02132456617148638</v>
       </c>
       <c r="E76">
-        <v>0.01095305789805795</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.05011500717379574</v>
+      </c>
+      <c r="F76">
+        <v>-0.1212346591305839</v>
+      </c>
+      <c r="G76">
+        <v>-0.02240088768504965</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.01219530574329413</v>
+        <v>0.06530358004988457</v>
       </c>
       <c r="C77">
-        <v>0.02092693787669719</v>
+        <v>-0.06059396121704223</v>
       </c>
       <c r="D77">
-        <v>-0.05348605323239846</v>
+        <v>0.01214594935615781</v>
       </c>
       <c r="E77">
-        <v>-0.007510310408087052</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.0490750277566303</v>
+      </c>
+      <c r="F77">
+        <v>0.008761183925584207</v>
+      </c>
+      <c r="G77">
+        <v>-0.05176947387357642</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.004629317680682813</v>
+        <v>0.04184602461339056</v>
       </c>
       <c r="C78">
-        <v>0.01741254925939998</v>
+        <v>-0.05096264136164697</v>
       </c>
       <c r="D78">
-        <v>-0.0629841267673724</v>
+        <v>0.005552506975471714</v>
       </c>
       <c r="E78">
-        <v>-0.000407094182488546</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.02075462019027106</v>
+      </c>
+      <c r="F78">
+        <v>0.03874628955263159</v>
+      </c>
+      <c r="G78">
+        <v>-0.04763684356476258</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.01558024809182008</v>
+        <v>0.05471014925816539</v>
       </c>
       <c r="C80">
-        <v>0.09606299443553946</v>
+        <v>-0.06458057228547215</v>
       </c>
       <c r="D80">
-        <v>-0.166072483759364</v>
+        <v>0.0120851713353982</v>
       </c>
       <c r="E80">
-        <v>0.9119337640984591</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.03234354999733025</v>
+      </c>
+      <c r="F80">
+        <v>0.0173273291629724</v>
+      </c>
+      <c r="G80">
+        <v>-0.8493312447462438</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.00641771372908828</v>
+        <v>0.1442871722104392</v>
       </c>
       <c r="C81">
-        <v>0.1214003072481155</v>
+        <v>-0.09035313446449983</v>
       </c>
       <c r="D81">
-        <v>-0.1650109652701416</v>
+        <v>-0.01577493375303269</v>
       </c>
       <c r="E81">
-        <v>-0.0005917475479554083</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.03459860025774617</v>
+      </c>
+      <c r="F81">
+        <v>-0.1259891604649987</v>
+      </c>
+      <c r="G81">
+        <v>-0.01964662579812187</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.1043333015968158</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.05251422282172093</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.005468276842727307</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.07796717112063674</v>
+      </c>
+      <c r="F82">
+        <v>-0.01479232225678709</v>
+      </c>
+      <c r="G82">
+        <v>-0.02641948270031857</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.007233543040502785</v>
+        <v>0.02854632964604241</v>
       </c>
       <c r="C83">
-        <v>0.02439361203981498</v>
+        <v>-0.02274142957148506</v>
       </c>
       <c r="D83">
-        <v>-0.02303413772030917</v>
+        <v>0.005926326034294937</v>
       </c>
       <c r="E83">
-        <v>-0.002383559560477837</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.02821032015024856</v>
+      </c>
+      <c r="F83">
+        <v>0.03470329390171192</v>
+      </c>
+      <c r="G83">
+        <v>-0.03286262179383183</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.01547680935992055</v>
+        <v>0.2213935920366662</v>
       </c>
       <c r="C85">
-        <v>0.1541558096028786</v>
+        <v>-0.1453717503739825</v>
       </c>
       <c r="D85">
-        <v>-0.2594921560858188</v>
+        <v>-0.01854888877492207</v>
       </c>
       <c r="E85">
-        <v>-0.02473067664578675</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.09905868979859229</v>
+      </c>
+      <c r="F85">
+        <v>-0.1507984591497825</v>
+      </c>
+      <c r="G85">
+        <v>0.07300527611940039</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.007769577802073949</v>
+        <v>0.01431861814066829</v>
       </c>
       <c r="C86">
-        <v>0.02773247399885782</v>
+        <v>-0.02083697552206309</v>
       </c>
       <c r="D86">
-        <v>-0.01082580204358863</v>
+        <v>0.01102515582319231</v>
       </c>
       <c r="E86">
-        <v>-0.02817535236481456</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.03864115632000945</v>
+      </c>
+      <c r="F86">
+        <v>0.0476165123877095</v>
+      </c>
+      <c r="G86">
+        <v>-0.0830513521147192</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.00778990190298747</v>
+        <v>0.01989475712210138</v>
       </c>
       <c r="C87">
-        <v>0.0161903763083222</v>
+        <v>-0.02449967784982185</v>
       </c>
       <c r="D87">
-        <v>-0.04221035495114488</v>
+        <v>0.01093833861150522</v>
       </c>
       <c r="E87">
-        <v>-0.005455308862220547</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.08317750086234399</v>
+      </c>
+      <c r="F87">
+        <v>0.02555997538119699</v>
+      </c>
+      <c r="G87">
+        <v>-0.06223530985919809</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.02744647985884218</v>
+        <v>0.09012026260041373</v>
       </c>
       <c r="C88">
-        <v>0.0365037760006516</v>
+        <v>-0.06364581775304687</v>
       </c>
       <c r="D88">
-        <v>-0.0368133223652663</v>
+        <v>0.02240915483546045</v>
       </c>
       <c r="E88">
-        <v>0.001187920336140736</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.01637413012773482</v>
+      </c>
+      <c r="F88">
+        <v>-0.02205918143773549</v>
+      </c>
+      <c r="G88">
+        <v>-0.03924188828834034</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.0730605599284502</v>
+        <v>0.2187669417181436</v>
       </c>
       <c r="C89">
-        <v>0.3592147973160661</v>
+        <v>0.3703461632802826</v>
       </c>
       <c r="D89">
-        <v>0.2521801533668543</v>
+        <v>-0.004892428448779166</v>
       </c>
       <c r="E89">
-        <v>-0.008032776475522892</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.02188814815416005</v>
+      </c>
+      <c r="F89">
+        <v>-0.02115673320343926</v>
+      </c>
+      <c r="G89">
+        <v>-0.03396341649843491</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.05554578533030318</v>
+        <v>0.1979884025160852</v>
       </c>
       <c r="C90">
-        <v>0.2751554587396748</v>
+        <v>0.3305138152930008</v>
       </c>
       <c r="D90">
-        <v>0.2244455815366705</v>
+        <v>-0.009343824850334272</v>
       </c>
       <c r="E90">
-        <v>-0.01131638996140032</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.02255100738465902</v>
+      </c>
+      <c r="F90">
+        <v>-0.04210961711210798</v>
+      </c>
+      <c r="G90">
+        <v>-0.006694555243046736</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.005362426568606793</v>
+        <v>0.1970515154769159</v>
       </c>
       <c r="C91">
-        <v>0.1707673362412368</v>
+        <v>-0.1352630466215073</v>
       </c>
       <c r="D91">
-        <v>-0.2354506723003828</v>
+        <v>-0.02424363083200451</v>
       </c>
       <c r="E91">
-        <v>-0.003876253131131236</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.07397934536686332</v>
+      </c>
+      <c r="F91">
+        <v>-0.1592840843395601</v>
+      </c>
+      <c r="G91">
+        <v>-0.004207066618715156</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.02273326124213798</v>
+        <v>0.2040564744992821</v>
       </c>
       <c r="C92">
-        <v>0.3104979823636712</v>
+        <v>0.2640947769959477</v>
       </c>
       <c r="D92">
-        <v>0.1067964355635642</v>
+        <v>-0.04542570541695801</v>
       </c>
       <c r="E92">
-        <v>-0.001412930217980887</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.003836055000364622</v>
+      </c>
+      <c r="F92">
+        <v>-0.06440510172528681</v>
+      </c>
+      <c r="G92">
+        <v>-0.07727611471273865</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.05400188880448206</v>
+        <v>0.2263951278305339</v>
       </c>
       <c r="C93">
-        <v>0.3072984257252903</v>
+        <v>0.3240881259902139</v>
       </c>
       <c r="D93">
-        <v>0.2210181628173205</v>
+        <v>-0.01603375676240479</v>
       </c>
       <c r="E93">
-        <v>-0.03086231223125971</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.009081443694954927</v>
+      </c>
+      <c r="F93">
+        <v>-0.03543627337370845</v>
+      </c>
+      <c r="G93">
+        <v>-0.00547783235324361</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.02829538878202566</v>
+        <v>0.3000856191816264</v>
       </c>
       <c r="C94">
-        <v>0.2012799136282675</v>
+        <v>-0.1761001671534561</v>
       </c>
       <c r="D94">
-        <v>-0.2397764899533954</v>
+        <v>-0.01702401134872533</v>
       </c>
       <c r="E94">
-        <v>-0.0452084488350897</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.1602698913971456</v>
+      </c>
+      <c r="F94">
+        <v>-0.4878623477993061</v>
+      </c>
+      <c r="G94">
+        <v>0.203286407803089</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.004607422551367642</v>
+        <v>0.08619660093049507</v>
       </c>
       <c r="C95">
-        <v>0.04670224188872629</v>
+        <v>-0.08763172456527082</v>
       </c>
       <c r="D95">
-        <v>-0.09183076672810914</v>
+        <v>-0.006424572697265188</v>
       </c>
       <c r="E95">
-        <v>-0.1081051225993959</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.07544190078554529</v>
+      </c>
+      <c r="F95">
+        <v>0.1955168917588454</v>
+      </c>
+      <c r="G95">
+        <v>0.06994781996103064</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.01275236588966727</v>
+        <v>0.1987061095578659</v>
       </c>
       <c r="C98">
-        <v>0.1676315936329062</v>
+        <v>-0.04589068730805963</v>
       </c>
       <c r="D98">
-        <v>-0.1139626091926047</v>
+        <v>-0.01258970126139245</v>
       </c>
       <c r="E98">
-        <v>-0.06055190501814444</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.06921456162392882</v>
+      </c>
+      <c r="F98">
+        <v>0.2439979380620075</v>
+      </c>
+      <c r="G98">
+        <v>0.02700115485811098</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.007945295938690866</v>
+        <v>0.01073887641841851</v>
       </c>
       <c r="C101">
-        <v>0.01993518940669712</v>
+        <v>-0.01916707835936551</v>
       </c>
       <c r="D101">
-        <v>-0.009566972919100544</v>
+        <v>0.007144637394367288</v>
       </c>
       <c r="E101">
-        <v>0.008628040492189267</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.008598281280628402</v>
+      </c>
+      <c r="F101">
+        <v>-0.01429089409503328</v>
+      </c>
+      <c r="G101">
+        <v>-0.04539432852324961</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.01707088034771932</v>
+        <v>0.1201757286261404</v>
       </c>
       <c r="C102">
-        <v>0.0879262114366712</v>
+        <v>-0.0835543185010147</v>
       </c>
       <c r="D102">
-        <v>-0.1230955814628264</v>
+        <v>0.001270593084668155</v>
       </c>
       <c r="E102">
-        <v>-0.01004300847374401</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.03152587376665526</v>
+      </c>
+      <c r="F102">
+        <v>-0.0421004152830702</v>
+      </c>
+      <c r="G102">
+        <v>0.00222704795826427</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>0.001331987159769382</v>
+        <v>0.003180042536119383</v>
       </c>
       <c r="C103">
-        <v>0.01046323138587347</v>
+        <v>-0.00457017284514686</v>
       </c>
       <c r="D103">
-        <v>-0.02521848848844929</v>
+        <v>6.43942182146476e-05</v>
       </c>
       <c r="E103">
-        <v>0.01577043587954916</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>0.001925573685746876</v>
+      </c>
+      <c r="F103">
+        <v>-0.009054099111571078</v>
+      </c>
+      <c r="G103">
+        <v>-0.01617857097097049</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.9788447641301407</v>
+        <v>0.02751422082564464</v>
       </c>
       <c r="C104">
-        <v>-0.1537671402092162</v>
+        <v>0.03787213465817711</v>
       </c>
       <c r="D104">
-        <v>0.002825851889898637</v>
+        <v>0.9873793313715135</v>
       </c>
       <c r="E104">
-        <v>0.02640805973252022</v>
+        <v>-0.04082688169479783</v>
+      </c>
+      <c r="F104">
+        <v>-0.0432745738503077</v>
+      </c>
+      <c r="G104">
+        <v>0.01310763806683692</v>
       </c>
     </row>
   </sheetData>
